--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il2-Cd53.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il2-Cd53.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Il2</t>
+  </si>
+  <si>
+    <t>Cd53</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il2</t>
-  </si>
-  <si>
-    <t>Cd53</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,40 +543,40 @@
         <v>0.238898</v>
       </c>
       <c r="I2">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.772999</v>
+        <v>2.618408666666667</v>
       </c>
       <c r="N2">
-        <v>2.318997</v>
+        <v>7.855226</v>
       </c>
       <c r="O2">
-        <v>0.001463454091077021</v>
+        <v>0.004311757517128344</v>
       </c>
       <c r="P2">
-        <v>0.001464302759660565</v>
+        <v>0.004320739451956157</v>
       </c>
       <c r="Q2">
-        <v>0.06155597170066667</v>
+        <v>0.2085108645497778</v>
       </c>
       <c r="R2">
-        <v>0.5540037453059999</v>
+        <v>1.876597780948</v>
       </c>
       <c r="S2">
-        <v>0.0007143904474134551</v>
+        <v>0.004311757517128344</v>
       </c>
       <c r="T2">
-        <v>0.0007148047280750763</v>
+        <v>0.004320739451956157</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>0.238898</v>
       </c>
       <c r="I3">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>236.8971606666667</v>
+        <v>348.4578143333333</v>
       </c>
       <c r="N3">
-        <v>710.691482</v>
+        <v>1045.373443</v>
       </c>
       <c r="O3">
-        <v>0.4484974999219451</v>
+        <v>0.5738086722217269</v>
       </c>
       <c r="P3">
-        <v>0.4487575871636991</v>
+        <v>0.5750039880707877</v>
       </c>
       <c r="Q3">
-        <v>18.86475262964844</v>
+        <v>27.74862497620155</v>
       </c>
       <c r="R3">
-        <v>169.782773666836</v>
+        <v>249.737624785814</v>
       </c>
       <c r="S3">
-        <v>0.2189356889202148</v>
+        <v>0.5738086722217269</v>
       </c>
       <c r="T3">
-        <v>0.2190626514550398</v>
+        <v>0.5750039880707877</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>0.238898</v>
       </c>
       <c r="I4">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.9183924999999999</v>
+        <v>3.787182</v>
       </c>
       <c r="N4">
-        <v>1.836785</v>
+        <v>7.574364</v>
       </c>
       <c r="O4">
-        <v>0.001738715394637578</v>
+        <v>0.006236387262657937</v>
       </c>
       <c r="P4">
-        <v>0.001159815792949767</v>
+        <v>0.004166252296022603</v>
       </c>
       <c r="Q4">
-        <v>0.07313404382166666</v>
+        <v>0.301583401812</v>
       </c>
       <c r="R4">
-        <v>0.43880426293</v>
+        <v>1.809500410872</v>
       </c>
       <c r="S4">
-        <v>0.0008487602558039034</v>
+        <v>0.006236387262657937</v>
       </c>
       <c r="T4">
-        <v>0.0005661683057189721</v>
+        <v>0.004166252296022603</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,10 +729,10 @@
         <v>0.238898</v>
       </c>
       <c r="I5">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4881536440187907</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>289.6131896666666</v>
+        <v>252.408376</v>
       </c>
       <c r="N5">
-        <v>868.8395689999999</v>
+        <v>757.225128</v>
       </c>
       <c r="O5">
-        <v>0.5483003305923404</v>
+        <v>0.4156431829984868</v>
       </c>
       <c r="P5">
-        <v>0.5486182942836906</v>
+        <v>0.4165090201812336</v>
       </c>
       <c r="Q5">
-        <v>23.06267059499578</v>
+        <v>20.09995206988267</v>
       </c>
       <c r="R5">
-        <v>207.564035354962</v>
+        <v>180.899568628944</v>
       </c>
       <c r="S5">
-        <v>0.2676548043953586</v>
+        <v>0.4156431829984868</v>
       </c>
       <c r="T5">
-        <v>0.2678100195299569</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.08349766666666665</v>
-      </c>
-      <c r="H6">
-        <v>0.250493</v>
-      </c>
-      <c r="I6">
-        <v>0.5118463559812092</v>
-      </c>
-      <c r="J6">
-        <v>0.5118463559812093</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.772999</v>
-      </c>
-      <c r="N6">
-        <v>2.318997</v>
-      </c>
-      <c r="O6">
-        <v>0.001463454091077021</v>
-      </c>
-      <c r="P6">
-        <v>0.001464302759660565</v>
-      </c>
-      <c r="Q6">
-        <v>0.06454361283566665</v>
-      </c>
-      <c r="R6">
-        <v>0.580892515521</v>
-      </c>
-      <c r="S6">
-        <v>0.0007490636436635658</v>
-      </c>
-      <c r="T6">
-        <v>0.0007494980315854887</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.08349766666666665</v>
-      </c>
-      <c r="H7">
-        <v>0.250493</v>
-      </c>
-      <c r="I7">
-        <v>0.5118463559812092</v>
-      </c>
-      <c r="J7">
-        <v>0.5118463559812093</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>236.8971606666667</v>
-      </c>
-      <c r="N7">
-        <v>710.691482</v>
-      </c>
-      <c r="O7">
-        <v>0.4484974999219451</v>
-      </c>
-      <c r="P7">
-        <v>0.4487575871636991</v>
-      </c>
-      <c r="Q7">
-        <v>19.78036015562511</v>
-      </c>
-      <c r="R7">
-        <v>178.023241400626</v>
-      </c>
-      <c r="S7">
-        <v>0.2295618110017303</v>
-      </c>
-      <c r="T7">
-        <v>0.2296949357086593</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.08349766666666665</v>
-      </c>
-      <c r="H8">
-        <v>0.250493</v>
-      </c>
-      <c r="I8">
-        <v>0.5118463559812092</v>
-      </c>
-      <c r="J8">
-        <v>0.5118463559812093</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.5</v>
-      </c>
-      <c r="M8">
-        <v>0.9183924999999999</v>
-      </c>
-      <c r="N8">
-        <v>1.836785</v>
-      </c>
-      <c r="O8">
-        <v>0.001738715394637578</v>
-      </c>
-      <c r="P8">
-        <v>0.001159815792949767</v>
-      </c>
-      <c r="Q8">
-        <v>0.07668363083416664</v>
-      </c>
-      <c r="R8">
-        <v>0.4601017850049999</v>
-      </c>
-      <c r="S8">
-        <v>0.0008899551388336743</v>
-      </c>
-      <c r="T8">
-        <v>0.000593647487230795</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.08349766666666665</v>
-      </c>
-      <c r="H9">
-        <v>0.250493</v>
-      </c>
-      <c r="I9">
-        <v>0.5118463559812092</v>
-      </c>
-      <c r="J9">
-        <v>0.5118463559812093</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>289.6131896666666</v>
-      </c>
-      <c r="N9">
-        <v>868.8395689999999</v>
-      </c>
-      <c r="O9">
-        <v>0.5483003305923404</v>
-      </c>
-      <c r="P9">
-        <v>0.5486182942836906</v>
-      </c>
-      <c r="Q9">
-        <v>24.18202557305744</v>
-      </c>
-      <c r="R9">
-        <v>217.6382301575169</v>
-      </c>
-      <c r="S9">
-        <v>0.2806455261969817</v>
-      </c>
-      <c r="T9">
-        <v>0.2808082747537337</v>
+        <v>0.4165090201812336</v>
       </c>
     </row>
   </sheetData>
